--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/ineien.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/ineien.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" r:id="rId2"/>
+    <sheet name="fiama" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -72,92 +72,89 @@
 Feel free to use my archives If you have something you would like to look up. However, it would be wise to ask Meister Lemixes directly, when he is in a good mood.</t>
   </si>
   <si>
-    <t xml:space="preserve">topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聞きたいことがある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have some questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私でお役に立てるかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How may I help?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウィロウについて教えて欲しい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about Willow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(戻る)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Back)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウィロウはミシリア領にある砦だ。150年前にこの地を拝領した時、私はこの砦をロスリアと名付けた。古いエレアの言葉で、約束の地という意味を持つ名前だ。だが、いつからか、この丘に生い茂るウィロウの木の名称の方が定着してしまった。今は私もこの砦をウィロウと呼んでいるよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、二十年前の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">어서 와, 윌로우에. 네 이야기는 에이슈란드한테서 편지로 들었어. 거창한 대접은 못 하지만, 천천히 피로를 풀라고.
 조사하고 싶은 문헌이 있다면 서고를 이용해도 돼. 하지만, 마이스터 레믹세스의 기분이 좋다면 그에게 직접 물어보는 게 현명할 거야.</t>
   </si>
   <si>
+    <t xml:space="preserve">topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聞きたいことがある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have some questions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">질문이 있다</t>
   </si>
   <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice/bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私でお役に立てるかな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How may I help?</t>
+  </si>
+  <si>
     <t xml:space="preserve">어떻게 도와줄까?</t>
   </si>
   <si>
+    <t xml:space="preserve">3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィロウについて教えて欲しい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about Willow.</t>
+  </si>
+  <si>
     <t xml:space="preserve">윌로우에 대해 알려줬으면 한다</t>
   </si>
   <si>
+    <t xml:space="preserve">(戻る)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Back)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(돌아간다)</t>
   </si>
   <si>
+    <t xml:space="preserve">ウィロウはミシリア領にある砦だ。150年前にこの地を拝領した時、私はこの砦をロスリアと名付けた。古いエレアの言葉で、約束の地という意味を持つ名前だ。だが、いつからか、この丘に生い茂るウィロウの木の名称の方が定着してしまった。今は私もこの砦をウィロウと呼んでいるよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
+  </si>
+  <si>
     <t xml:space="preserve">윌로우는 미실리아령에 있는 요새다. 150년 전에 이 땅을 받았을 때, 난 이 요새에 로스리아라는 이름을 붙였어. 옛 엘레아의 언어로 약속의 땅이라는 의미지. 하지만 언제부터인가, 이 언덕에 무성한 윌로우 나무의 이름이 굳어져 버렸지. 지금은 나도 이 요새를 윌로우라고 불러.</t>
   </si>
   <si>
-    <t xml:space="preserve">…일찍이, 이 윌로우는 미실리아가 내세우는 인간과 엘레아의 공존의 상징이었어. 하지만, 20년 전의 전쟁으로 서로의 관계가 삐걱거리기 시작한 이래로, 윌로우의 등불 또한 비출 장소를 잃어가고 있지.</t>
+    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、先の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…일찍이, 이 윌로우는 미실리아가 내세우는 인간과 엘레아의 공존의 상징이었어. 하지만, 지난 전쟁으로 서로의 관계가 삐걱거리기 시작한 이래로, 윌로우의 등불 또한 비출 장소를 잃어가고 있지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last</t>
   </si>
 </sst>
 </file>
@@ -178,20 +175,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +206,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -218,46 +215,50 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -271,13 +272,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="游ゴシック"/>
+        <charset val="128"/>
+        <family val="2"/>
         <color rgb="FFCC0000"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -346,33 +347,139 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K28" sqref="K28"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.99" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.09" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.28" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,29 +514,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="H2" s="1">
-        <f>MAX(H4:H1048576)</f>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="n">
+        <f aca="false">MAX(H4:H1048576)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="12.8">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="12.8">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="85.05">
-      <c r="H11" s="1">
+    <row r="11" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -438,162 +545,162 @@
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="12.8">
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="12.8">
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="12.8">
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" ht="12.8">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="12.8">
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="H21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="12.8">
+        <v>32</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" ht="12.8">
+        <v>35</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" ht="137.3">
-      <c r="H27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="28" ht="53.7">
-      <c r="H28" s="1">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" ht="12.8">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/ineien.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/ineien.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="fiama" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -72,89 +72,92 @@
 Feel free to use my archives If you have something you would like to look up. However, it would be wise to ask Meister Lemixes directly, when he is in a good mood.</t>
   </si>
   <si>
+    <t xml:space="preserve">topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聞きたいことがある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have some questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice/bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私でお役に立てるかな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How may I help?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィロウについて教えて欲しい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about Willow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(戻る)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Back)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィロウはミシリア領にある砦だ。150年前にこの地を拝領した時、私はこの砦をロスリアと名付けた。古いエレアの言葉で、約束の地という意味を持つ名前だ。だが、いつからか、この丘に生い茂るウィロウの木の名称の方が定着してしまった。今は私もこの砦をウィロウと呼んでいるよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、先の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">어서 와, 윌로우에. 네 이야기는 에이슈란드한테서 편지로 들었어. 거창한 대접은 못 하지만, 천천히 피로를 풀라고.
 조사하고 싶은 문헌이 있다면 서고를 이용해도 돼. 하지만, 마이스터 레믹세스의 기분이 좋다면 그에게 직접 물어보는 게 현명할 거야.</t>
   </si>
   <si>
-    <t xml:space="preserve">topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聞きたいことがある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have some questions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">질문이 있다</t>
   </si>
   <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私でお役に立てるかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How may I help?</t>
-  </si>
-  <si>
     <t xml:space="preserve">어떻게 도와줄까?</t>
   </si>
   <si>
-    <t xml:space="preserve">3-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウィロウについて教えて欲しい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about Willow.</t>
-  </si>
-  <si>
     <t xml:space="preserve">윌로우에 대해 알려줬으면 한다</t>
   </si>
   <si>
-    <t xml:space="preserve">(戻る)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Back)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(돌아간다)</t>
   </si>
   <si>
-    <t xml:space="preserve">ウィロウはミシリア領にある砦だ。150年前にこの地を拝領した時、私はこの砦をロスリアと名付けた。古いエレアの言葉で、約束の地という意味を持つ名前だ。だが、いつからか、この丘に生い茂るウィロウの木の名称の方が定着してしまった。今は私もこの砦をウィロウと呼んでいるよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
-  </si>
-  <si>
     <t xml:space="preserve">윌로우는 미실리아령에 있는 요새다. 150년 전에 이 땅을 받았을 때, 난 이 요새에 로스리아라는 이름을 붙였어. 옛 엘레아의 언어로 약속의 땅이라는 의미지. 하지만 언제부터인가, 이 언덕에 무성한 윌로우 나무의 이름이 굳어져 버렸지. 지금은 나도 이 요새를 윌로우라고 불러.</t>
   </si>
   <si>
-    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、先の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
-  </si>
-  <si>
     <t xml:space="preserve">…일찍이, 이 윌로우는 미실리아가 내세우는 인간과 엘레아의 공존의 상징이었어. 하지만, 지난 전쟁으로 서로의 관계가 삐걱거리기 시작한 이래로, 윌로우의 등불 또한 비출 장소를 잃어가고 있지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last</t>
   </si>
 </sst>
 </file>
@@ -175,20 +178,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,7 +209,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -215,50 +218,46 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -272,13 +271,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -454,32 +453,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.28"/>
+    <col min="1" max="1" width="14.41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.99" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.09" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,29 +513,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="1" t="n">
-        <f aca="false">MAX(H4:H1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="H2" s="1">
+        <f>MAX(H4:H1048576)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="1" t="n">
+    <row r="11" ht="85.05">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -545,162 +544,162 @@
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="1" t="s">
+    <row r="14" ht="12.8">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="1" t="s">
+    <row r="15" ht="12.8">
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="20" ht="12.8">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="64.15">
+      <c r="H27" s="1">
         <v>6</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" ht="53.7">
+      <c r="H28" s="1">
         <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="12.8">
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
